--- a/ETRobo/doc/ロボコンスケジュール.xlsx
+++ b/ETRobo/doc/ロボコンスケジュール.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-kondo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\20_Offce\03_グループ\ロボコン\git\frobo\ETRobo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="14550" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
+    <sheet name="ペッパー案出" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>染宮</t>
     <rPh sb="0" eb="2">
@@ -107,10 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施説明会</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受付</t>
     <rPh sb="0" eb="2">
       <t>ウケツケ</t>
@@ -325,6 +322,215 @@
     <rPh sb="4" eb="5">
       <t>ツタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイッター監視</t>
+    <rPh sb="5" eb="7">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNS監視</t>
+    <rPh sb="3" eb="5">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻雀</t>
+    <rPh sb="0" eb="2">
+      <t>マージャン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供遊ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくれんぼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>児童知育</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チイク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿題監視</t>
+    <rPh sb="0" eb="2">
+      <t>シュクダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片づけ監視</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレビの距離</t>
+    <rPh sb="4" eb="6">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人の後ろを歩く</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忘れ物確認</t>
+    <rPh sb="0" eb="1">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒーローごっこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供の移動監視</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVリモコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留守番</t>
+    <rPh sb="0" eb="3">
+      <t>ルスバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目覚まし</t>
+    <rPh sb="0" eb="2">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強支援</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペッパー受付</t>
+    <rPh sb="4" eb="6">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔認証で開ける、勤怠管理</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施説明会→宮内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危険物に近寄らない</t>
+    <rPh sb="0" eb="2">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チカヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★★</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -333,9 +539,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -347,6 +553,14 @@
       <sz val="6"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -419,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,6 +657,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,8 +946,8 @@
   </sheetPr>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -745,7 +962,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -753,14 +970,14 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -768,19 +985,19 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -791,7 +1008,7 @@
         <v>42337</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -799,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -818,14 +1035,16 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>42386</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
@@ -835,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -845,7 +1064,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
@@ -861,7 +1080,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -870,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -879,7 +1098,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
@@ -889,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -912,7 +1131,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -943,7 +1162,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -959,7 +1178,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
@@ -983,7 +1202,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1014,4 +1233,138 @@
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ETRobo/doc/ロボコンスケジュール.xlsx
+++ b/ETRobo/doc/ロボコンスケジュール.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="14550" windowHeight="8340"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="14550" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
     <sheet name="ペッパー案出" sheetId="2" r:id="rId2"/>
+    <sheet name="ペッパー案まとめ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>染宮</t>
     <rPh sb="0" eb="2">
@@ -532,6 +533,209 @@
   <si>
     <t>★★★</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペッパー企画</t>
+    <rPh sb="4" eb="6">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案一覧</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔認証で勤怠管理</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔認証でドアを開ける</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供遊ぶ、児童知育</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人の後ろを歩く</t>
+  </si>
+  <si>
+    <t>決まった方針</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペッパーを親代わり兄弟代わりになるよう</t>
+    <rPh sb="5" eb="6">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供のスケジュール管理をペッパーにしてもらう</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール管理のなかにいろいろ機能を追加する</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例:朝は目覚まし、寝る前は片づけ監視など</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供向けアプリであれば、ペッパーであることが生かせる</t>
+    <rPh sb="0" eb="3">
+      <t>コドモム</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→子供を見つける</t>
+    <rPh sb="1" eb="3">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→モーション特化の紙芝居作成ツール</t>
+    <rPh sb="6" eb="8">
+      <t>トッカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カミシバイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→タッチセンサーや、逃げるなど</t>
+    <rPh sb="10" eb="11">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→クイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず機能としては、目覚ましと片づけ監視を目標にする</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→出来たらスタンプなどのご褒美</t>
+    <rPh sb="1" eb="3">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(所詮子供だましのなので子供に使ってもらう)</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1150,7 @@
   </sheetPr>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1239,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1367,4 +1571,202 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>